--- a/biology/Médecine/Mesure_du_volume_du_liquide_amniotique/Mesure_du_volume_du_liquide_amniotique.xlsx
+++ b/biology/Médecine/Mesure_du_volume_du_liquide_amniotique/Mesure_du_volume_du_liquide_amniotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mesure du volume du liquide amniotique lors d'une échographie permet de savoir si le fœtus a trop ou pas assez de liquide amniotique. [pourquoi ?]
 </t>
@@ -511,7 +523,9 @@
           <t>Technique de la mesure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Patiente sur le dos
 La sonde doit rester parallèle au plan sagittal et perpendiculaire au plan coronal
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Évaluation de Phelan
-L'évaluation de Phelan utilise un index amniotique, qui est la somme des profondeurs (diamètres verticaux) de liquide de quatre quadrants.
+          <t>Évaluation de Phelan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'évaluation de Phelan utilise un index amniotique, qui est la somme des profondeurs (diamètres verticaux) de liquide de quatre quadrants.
 Les quadrants sont des divisions virtuelles de l'utérus obtenues à partir de deux droites perpendiculaires se croisant au niveau de l'ombilic.
 Index:
 de 0 à 5 cm : oligoamnios ;
@@ -555,8 +574,43 @@
 supérieur à 18,1-25 cm : excès ;
 supérieur à 25 cm : hydramnios.
 Si l'index est inférieur à 8, refaire la mesure trois fois et faites la moyenne de ces trois mesures.
-Évaluation de Chamberlain
-L'évaluation de Chamberlain utilise un grade, qui est la profondeur (diamètre vertical) de la plus grande citerne de liquide amniotique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mesure_du_volume_du_liquide_amniotique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mesure_du_volume_du_liquide_amniotique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Évaluation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Évaluation de Chamberlain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'évaluation de Chamberlain utilise un grade, qui est la profondeur (diamètre vertical) de la plus grande citerne de liquide amniotique.
 Quatre grades :
 I : inférieur à 1 cm ou oligoamnios ;
 II : 1 à 2 cm ou marginal ;
